--- a/BMI/wwwroot/Uploads/raw material.xlsx
+++ b/BMI/wwwroot/Uploads/raw material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frizal\OneDrive - bumblebeeseafoods\Documents\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DA48B5-C188-476F-8E8E-EE8BC7D8E05F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3749F856-D664-419E-8913-3A7E50A182D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4E27476A-BD09-40D5-8C59-3B6D869D2E45}"/>
   </bookViews>
@@ -77,7 +77,7 @@
     <t>sap_code</t>
   </si>
   <si>
-    <t>ASTB20_20</t>
+    <t>ASTB20_32</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -551,7 +551,7 @@
         <v>44046</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
